--- a/scalpel/typeinfer/evaluation/evaluation_outputs/eriklindernoren__ML-From-Scratch.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/eriklindernoren__ML-From-Scratch.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F536"/>
+  <dimension ref="A1:F537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11111,9 +11111,9 @@
           <t>{'any', 'list'}</t>
         </is>
       </c>
-      <c r="F335" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F335" s="3" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -11431,9 +11431,9 @@
           <t>{'any', 'list'}</t>
         </is>
       </c>
-      <c r="F345" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F345" s="3" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -17504,21 +17504,35 @@
         </is>
       </c>
       <c r="F535" s="2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="inlineStr"/>
       <c r="B536" s="2" t="inlineStr"/>
-      <c r="C536" s="2" t="inlineStr"/>
-      <c r="D536" s="2" t="inlineStr"/>
-      <c r="E536" s="2" t="inlineStr">
+      <c r="C536" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D536" s="2" t="n">
+        <v>2217.39</v>
+      </c>
+      <c r="E536" s="2" t="inlineStr"/>
+      <c r="F536" s="2" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="inlineStr"/>
+      <c r="B537" s="2" t="inlineStr"/>
+      <c r="C537" s="2" t="inlineStr"/>
+      <c r="D537" s="2" t="inlineStr"/>
+      <c r="E537" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F536" s="2" t="n">
-        <v>91.3</v>
+      <c r="F537" s="2" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/eriklindernoren__ML-From-Scratch.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/eriklindernoren__ML-From-Scratch.xlsx
@@ -3248,7 +3248,7 @@
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'Tuple[any]'}</t>
+          <t>{'Tuple[any]', 'empty'}</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
@@ -3280,12 +3280,12 @@
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F90" s="5" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>Tuple[any]</t>
+        </is>
+      </c>
+      <c r="F90" s="4" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -11108,7 +11108,7 @@
       </c>
       <c r="E335" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'list'}</t>
+          <t>{'list', 'any'}</t>
         </is>
       </c>
       <c r="F335" s="3" t="inlineStr">
@@ -11140,12 +11140,12 @@
       </c>
       <c r="E336" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F336" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="F336" s="3" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -11428,7 +11428,7 @@
       </c>
       <c r="E345" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'list'}</t>
+          <t>{'list', 'any'}</t>
         </is>
       </c>
       <c r="F345" s="3" t="inlineStr">
@@ -11460,12 +11460,12 @@
       </c>
       <c r="E346" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F346" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="F346" s="3" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E535" s="2" t="inlineStr">
         <is>
@@ -17504,22 +17504,22 @@
         </is>
       </c>
       <c r="F535" s="2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="inlineStr"/>
       <c r="B536" s="2" t="inlineStr"/>
-      <c r="C536" s="2" t="inlineStr">
+      <c r="C536" s="2" t="inlineStr"/>
+      <c r="D536" s="2" t="inlineStr"/>
+      <c r="E536" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D536" s="2" t="n">
-        <v>2217.39</v>
-      </c>
-      <c r="E536" s="2" t="inlineStr"/>
-      <c r="F536" s="2" t="inlineStr"/>
+      <c r="F536" s="2" t="n">
+        <v>95.87</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="inlineStr"/>
@@ -17528,11 +17528,11 @@
       <c r="D537" s="2" t="inlineStr"/>
       <c r="E537" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F537" s="2" t="n">
-        <v>100</v>
+        <v>113.64</v>
       </c>
     </row>
   </sheetData>
